--- a/data/trans_orig/P36BPD09_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD09_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>6007</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2009</v>
+        <v>1623</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16486</v>
+        <v>15500</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.01883905879203516</v>
+        <v>0.01883905879203517</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006301380327935862</v>
+        <v>0.005089618125724309</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05170537792417361</v>
+        <v>0.04861152122474281</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -762,19 +762,19 @@
         <v>5423</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2823</v>
+        <v>2972</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10326</v>
+        <v>9928</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01715949998344954</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0089310381107847</v>
+        <v>0.009404453642001622</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03267058467780814</v>
+        <v>0.03141232242317917</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -783,19 +783,19 @@
         <v>11430</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6139</v>
+        <v>6472</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20573</v>
+        <v>21786</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01800296258182245</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009669525703953807</v>
+        <v>0.01019414943167556</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03240336652525862</v>
+        <v>0.03431427220076284</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>283423</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>268830</v>
+        <v>270586</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>293715</v>
+        <v>296002</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8889054429337765</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8431372404928678</v>
+        <v>0.848645310168809</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.921183859709054</v>
+        <v>0.9283556134150911</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>499</v>
@@ -833,19 +833,19 @@
         <v>295064</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>287310</v>
+        <v>287445</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>300965</v>
+        <v>301281</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9335665076046128</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9090319774962579</v>
+        <v>0.9094597651730149</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9522382747112926</v>
+        <v>0.9532376446016089</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>797</v>
@@ -854,19 +854,19 @@
         <v>578487</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>563780</v>
+        <v>563051</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>591656</v>
+        <v>591213</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9111380356387598</v>
+        <v>0.9111380356387596</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.887973489636291</v>
+        <v>0.8868257291654686</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9318798000087076</v>
+        <v>0.9311819322230358</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>29415</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19975</v>
+        <v>19094</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42409</v>
+        <v>41902</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.09225549827418834</v>
+        <v>0.09225549827418836</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06264712875669497</v>
+        <v>0.05988614383321764</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1330079225644768</v>
+        <v>0.131418223982424</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -904,19 +904,19 @@
         <v>15574</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10510</v>
+        <v>10303</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21994</v>
+        <v>22018</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04927399241193767</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03325380488197341</v>
+        <v>0.03259705935604325</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06958774171542795</v>
+        <v>0.06966244380577598</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>57</v>
@@ -925,19 +925,19 @@
         <v>44989</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>33890</v>
+        <v>33535</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>58195</v>
+        <v>59450</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07085900177941784</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0533787080407908</v>
+        <v>0.05281820985886063</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09165910129047473</v>
+        <v>0.09363634335189694</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>69740</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>53129</v>
+        <v>50298</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>94882</v>
+        <v>94157</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.131425019838505</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1001209635174995</v>
+        <v>0.09478635106889409</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.17880447279215</v>
+        <v>0.1774378719228221</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>79</v>
@@ -1050,19 +1050,19 @@
         <v>61160</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>48622</v>
+        <v>48594</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>76045</v>
+        <v>75300</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1119133832333419</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08897128411325886</v>
+        <v>0.08891995830692279</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1391501271950172</v>
+        <v>0.1377874398311378</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>125</v>
@@ -1071,19 +1071,19 @@
         <v>130900</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>107039</v>
+        <v>105705</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>160061</v>
+        <v>158414</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1215256699836888</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09937332034282302</v>
+        <v>0.09813518216938449</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.148598238180999</v>
+        <v>0.14706876034109</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>315511</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>288611</v>
+        <v>286856</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>343250</v>
+        <v>344257</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5945771098870569</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5438844929335014</v>
+        <v>0.5405785561231755</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6468527795919901</v>
+        <v>0.6487504567333525</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>421</v>
@@ -1121,19 +1121,19 @@
         <v>326547</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>302087</v>
+        <v>305095</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>345553</v>
+        <v>347167</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.5975304057776092</v>
+        <v>0.597530405777609</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5527727451852451</v>
+        <v>0.558276521518031</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6323097732982027</v>
+        <v>0.6352613558800027</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>651</v>
@@ -1142,19 +1142,19 @@
         <v>642057</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>603698</v>
+        <v>606687</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>677320</v>
+        <v>676582</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.5960754828752886</v>
+        <v>0.5960754828752887</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5604630562367651</v>
+        <v>0.5632385831255549</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.62881261546752</v>
+        <v>0.6281274189335339</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>145396</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>120516</v>
+        <v>119798</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>170515</v>
+        <v>171168</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2739978702744379</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2271123591190032</v>
+        <v>0.2257590199971271</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3213339636543944</v>
+        <v>0.3225641089237604</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>217</v>
@@ -1192,19 +1192,19 @@
         <v>158787</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>139999</v>
+        <v>140330</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>178004</v>
+        <v>177906</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.290556210989049</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2561772857058409</v>
+        <v>0.2567831193773124</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3257200689595163</v>
+        <v>0.3255411240300434</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>323</v>
@@ -1213,19 +1213,19 @@
         <v>304183</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>272639</v>
+        <v>274267</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>336767</v>
+        <v>337973</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2823988471410226</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2531139884415325</v>
+        <v>0.2546247710337138</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.312648567957944</v>
+        <v>0.3137689274700841</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>10871</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6038</v>
+        <v>6122</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18913</v>
+        <v>18970</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0344955453035307</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01916085155164935</v>
+        <v>0.01942767100383821</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06001762228429184</v>
+        <v>0.06019693656602724</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>20</v>
@@ -1338,19 +1338,19 @@
         <v>12682</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7496</v>
+        <v>8057</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18531</v>
+        <v>19213</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03609220566537764</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02133191273903043</v>
+        <v>0.0229308333735785</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05273858932013893</v>
+        <v>0.05467954260021577</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>33</v>
@@ -1359,19 +1359,19 @@
         <v>23552</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>16313</v>
+        <v>16126</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>32307</v>
+        <v>33377</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03533729234855321</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02447527298287905</v>
+        <v>0.02419433121774564</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04847289483392871</v>
+        <v>0.0500773723018083</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>175260</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>159002</v>
+        <v>158107</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>191135</v>
+        <v>192330</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5561546613868579</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5045627627945823</v>
+        <v>0.5017237571645818</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6065315204044891</v>
+        <v>0.6103231003857511</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>284</v>
@@ -1409,19 +1409,19 @@
         <v>192884</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>177560</v>
+        <v>177533</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>209277</v>
+        <v>208101</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5489387965480729</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5053270737317903</v>
+        <v>0.5052504645023607</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5955928601195133</v>
+        <v>0.5922466539442202</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>474</v>
@@ -1430,19 +1430,19 @@
         <v>368144</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>344675</v>
+        <v>344751</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>389628</v>
+        <v>393658</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5523505130216394</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5171387648343663</v>
+        <v>0.5172524160785743</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5845845126271116</v>
+        <v>0.5906312833885248</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>128998</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>113358</v>
+        <v>112101</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>146451</v>
+        <v>145878</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4093497933096115</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3597204516470893</v>
+        <v>0.3557318376089825</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4647342265713394</v>
+        <v>0.4629168094861447</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>225</v>
@@ -1480,19 +1480,19 @@
         <v>145810</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>130279</v>
+        <v>130922</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>161069</v>
+        <v>160493</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4149689977865494</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3707682621128796</v>
+        <v>0.3725977090069875</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4583959437344365</v>
+        <v>0.4567554097060535</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>381</v>
@@ -1501,19 +1501,19 @@
         <v>274808</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>252891</v>
+        <v>249373</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>298463</v>
+        <v>297159</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4123121946298073</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3794296431695823</v>
+        <v>0.3741504140551828</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4478037302277975</v>
+        <v>0.4458469537112723</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>35446</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22722</v>
+        <v>23510</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56540</v>
+        <v>56722</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09539023940460546</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06114940040066447</v>
+        <v>0.06326859441540789</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1521568616798269</v>
+        <v>0.1526477565212382</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>56</v>
@@ -1626,19 +1626,19 @@
         <v>37738</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28695</v>
+        <v>28827</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>49382</v>
+        <v>50334</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08943401424575725</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0680049785243248</v>
+        <v>0.06831716517183217</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1170294536196202</v>
+        <v>0.1192857056614638</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>85</v>
@@ -1647,19 +1647,19 @@
         <v>73184</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>56754</v>
+        <v>55334</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>95576</v>
+        <v>95835</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09222307696855356</v>
+        <v>0.09222307696855354</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07151959826736885</v>
+        <v>0.0697292032055202</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1204408495590549</v>
+        <v>0.1207677508537798</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>194555</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>167785</v>
+        <v>170300</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>219236</v>
+        <v>218508</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5235797220257835</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4515364968141849</v>
+        <v>0.4583036002509067</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5899992406570617</v>
+        <v>0.5880402437306769</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>288</v>
@@ -1697,19 +1697,19 @@
         <v>226626</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>206448</v>
+        <v>207500</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>245624</v>
+        <v>245820</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5370783472182751</v>
+        <v>0.5370783472182752</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4892575598050175</v>
+        <v>0.4917513412865144</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5821010930909555</v>
+        <v>0.5825657087625649</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>439</v>
@@ -1718,19 +1718,19 @@
         <v>421182</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>389306</v>
+        <v>384987</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>455264</v>
+        <v>455193</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5307574793314308</v>
+        <v>0.5307574793314307</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4905889288957478</v>
+        <v>0.4851462700419695</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5737064084674288</v>
+        <v>0.5736168377075443</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>141586</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>117083</v>
+        <v>117433</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>169316</v>
+        <v>168120</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3810300385696112</v>
+        <v>0.3810300385696113</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3150894367944326</v>
+        <v>0.3160311977401692</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4556560268607154</v>
+        <v>0.4524380189137376</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>255</v>
@@ -1768,19 +1768,19 @@
         <v>157597</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>138313</v>
+        <v>138981</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>175737</v>
+        <v>176332</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3734876385359677</v>
+        <v>0.3734876385359678</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3277865006490395</v>
+        <v>0.3293689698419441</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4164775696385989</v>
+        <v>0.4178880840112839</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>365</v>
@@ -1789,19 +1789,19 @@
         <v>299183</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>266077</v>
+        <v>269854</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>327524</v>
+        <v>333797</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.3770194437000157</v>
+        <v>0.3770194437000156</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3352994898917211</v>
+        <v>0.3400599019593716</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4127335941970498</v>
+        <v>0.4206387563207348</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>8987</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4687</v>
+        <v>5212</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16517</v>
+        <v>16809</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04380364662004411</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02284534418111039</v>
+        <v>0.02540069559169177</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08050430933812049</v>
+        <v>0.08192574886359556</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1914,19 +1914,19 @@
         <v>3506</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1447</v>
+        <v>1414</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7042</v>
+        <v>7214</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01545642284543227</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006379090776577979</v>
+        <v>0.006232759386503797</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03104765535453323</v>
+        <v>0.0318059598464764</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>18</v>
@@ -1935,19 +1935,19 @@
         <v>12493</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7166</v>
+        <v>7390</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19727</v>
+        <v>19361</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02891966796755719</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01658907422159354</v>
+        <v>0.01710669012090112</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04566530252363735</v>
+        <v>0.04481778636706137</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>149058</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>137223</v>
+        <v>136682</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>159481</v>
+        <v>158918</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7265039526614969</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6688196493511762</v>
+        <v>0.6661828478384444</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7773056288024176</v>
+        <v>0.7745584456998821</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>350</v>
@@ -1985,19 +1985,19 @@
         <v>158595</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>147943</v>
+        <v>147759</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>168457</v>
+        <v>168572</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.6992023823690027</v>
+        <v>0.6992023823690026</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6522408398902566</v>
+        <v>0.6514299520953371</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7426813297655371</v>
+        <v>0.7431892493619356</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>554</v>
@@ -2006,19 +2006,19 @@
         <v>307654</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>291358</v>
+        <v>291557</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>322694</v>
+        <v>322236</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.712169004285466</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6744461064031054</v>
+        <v>0.6749069279304256</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.746983540733967</v>
+        <v>0.7459226123896329</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>47126</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36988</v>
+        <v>37031</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58242</v>
+        <v>58645</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2296924007184588</v>
+        <v>0.2296924007184589</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1802776799814823</v>
+        <v>0.1804876252746556</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2838674654686418</v>
+        <v>0.2858319497434381</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>134</v>
@@ -2056,19 +2056,19 @@
         <v>64722</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>55063</v>
+        <v>54443</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>74932</v>
+        <v>75559</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2853411947855651</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2427561857321638</v>
+        <v>0.2400249126282994</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3303549264948101</v>
+        <v>0.3331182437978</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>197</v>
@@ -2077,19 +2077,19 @@
         <v>111849</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>96747</v>
+        <v>97463</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>128701</v>
+        <v>127669</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2589113277469767</v>
+        <v>0.2589113277469768</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2239534463480895</v>
+        <v>0.2256114355253089</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2979211061272186</v>
+        <v>0.2955316874182044</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>10435</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6012</v>
+        <v>6189</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16967</v>
+        <v>17987</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03854601349392971</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02220723291595433</v>
+        <v>0.02286075002840882</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06267633066174838</v>
+        <v>0.06644499476544269</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>16</v>
@@ -2202,19 +2202,19 @@
         <v>9306</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5572</v>
+        <v>5511</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15730</v>
+        <v>16363</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03541399023021696</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02120445144876568</v>
+        <v>0.02097017352712519</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05985944862262977</v>
+        <v>0.06226563640102729</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>31</v>
@@ -2223,19 +2223,19 @@
         <v>19741</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>13189</v>
+        <v>13019</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>29007</v>
+        <v>27314</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03700324433689185</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02472249721634978</v>
+        <v>0.02440280574853333</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05437083639335483</v>
+        <v>0.0511989435538134</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>180419</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>166510</v>
+        <v>166564</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>194544</v>
+        <v>192894</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6664738489163222</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6150945615360107</v>
+        <v>0.6152925234683287</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7186527778928945</v>
+        <v>0.7125573487284648</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>298</v>
@@ -2273,19 +2273,19 @@
         <v>178469</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>166755</v>
+        <v>166702</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>189928</v>
+        <v>189805</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.679133845872219</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6345597298197145</v>
+        <v>0.6343556189871981</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7227386326170435</v>
+        <v>0.7222714730983976</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>542</v>
@@ -2294,19 +2294,19 @@
         <v>358888</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>340525</v>
+        <v>342339</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>376580</v>
+        <v>377777</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6727098986475104</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6382892676858272</v>
+        <v>0.6416897434582735</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7058713096942097</v>
+        <v>0.7081168113089126</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>79853</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>66772</v>
+        <v>67368</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>92923</v>
+        <v>94264</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2949801375897481</v>
+        <v>0.294980137589748</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.246656465360778</v>
+        <v>0.2488595162400401</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3432598207425218</v>
+        <v>0.3482123341430208</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>144</v>
@@ -2344,19 +2344,19 @@
         <v>75014</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>63746</v>
+        <v>64554</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>86733</v>
+        <v>86002</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.285452163897564</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2425766082197434</v>
+        <v>0.2456487186432379</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3300481033889279</v>
+        <v>0.3272672949167915</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>256</v>
@@ -2365,19 +2365,19 @@
         <v>154867</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>137425</v>
+        <v>138035</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>172416</v>
+        <v>171779</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2902868570155978</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2575931021864831</v>
+        <v>0.258736088616765</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3231820645155059</v>
+        <v>0.3219872574382052</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>52984</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>37610</v>
+        <v>38867</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>71719</v>
+        <v>73469</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.07382838173477566</v>
+        <v>0.07382838173477564</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05240664175239369</v>
+        <v>0.05415833816389443</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09993490517573557</v>
+        <v>0.1023725729846098</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>78</v>
@@ -2490,19 +2490,19 @@
         <v>71296</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>56762</v>
+        <v>56996</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>89334</v>
+        <v>89410</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.09242797239818083</v>
+        <v>0.09242797239818082</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07358581863101728</v>
+        <v>0.07388975558221934</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1158123091315579</v>
+        <v>0.1159113001374958</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>119</v>
@@ -2511,19 +2511,19 @@
         <v>124280</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>102783</v>
+        <v>103369</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>150784</v>
+        <v>148245</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.08346359508025532</v>
+        <v>0.08346359508025533</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06902678152856422</v>
+        <v>0.06942046630554725</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1012634651830359</v>
+        <v>0.09955858423533118</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>406060</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>377741</v>
+        <v>374758</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>437233</v>
+        <v>435957</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5658105885628237</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.526350561175951</v>
+        <v>0.5221932205661134</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6092467375301985</v>
+        <v>0.6074688184230416</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>545</v>
@@ -2561,19 +2561,19 @@
         <v>437191</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>412131</v>
+        <v>411386</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>462858</v>
+        <v>461711</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.5667745223084422</v>
+        <v>0.5667745223084421</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5342872515320437</v>
+        <v>0.5333208974422775</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.600050156826987</v>
+        <v>0.5985631025166338</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>876</v>
@@ -2582,19 +2582,19 @@
         <v>843251</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>798913</v>
+        <v>801814</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>883019</v>
+        <v>880710</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5663099386538026</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5365335607906667</v>
+        <v>0.5384819627451938</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5930177804408143</v>
+        <v>0.5914665802703437</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>258617</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>229429</v>
+        <v>229203</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>285707</v>
+        <v>287190</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3603610297024005</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3196892486324856</v>
+        <v>0.3193753182535484</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3981086569298218</v>
+        <v>0.4001754452833088</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>336</v>
@@ -2632,19 +2632,19 @@
         <v>262880</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>239061</v>
+        <v>239641</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>286816</v>
+        <v>288483</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3407975052933772</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3099193704161917</v>
+        <v>0.3106707690874845</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3718286632887912</v>
+        <v>0.3739893754845117</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>561</v>
@@ -2653,19 +2653,19 @@
         <v>521497</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>483564</v>
+        <v>482380</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>561906</v>
+        <v>557700</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.3502264662659421</v>
+        <v>0.3502264662659422</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3247519866054519</v>
+        <v>0.3239563931647161</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3773643176366018</v>
+        <v>0.3745395985556488</v>
       </c>
     </row>
     <row r="31">
@@ -2757,19 +2757,19 @@
         <v>79244</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>62068</v>
+        <v>62166</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>100883</v>
+        <v>97460</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.0993767279264986</v>
+        <v>0.09937672792649858</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07783781535187345</v>
+        <v>0.07795976688578857</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1265138070270714</v>
+        <v>0.1222209924784704</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>93</v>
@@ -2778,19 +2778,19 @@
         <v>79930</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>65346</v>
+        <v>64242</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>96481</v>
+        <v>96900</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09614662887313172</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07860394417824032</v>
+        <v>0.07727587004301309</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1160563520221416</v>
+        <v>0.1165597312839659</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>163</v>
@@ -2799,19 +2799,19 @@
         <v>159173</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>133631</v>
+        <v>133919</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>185535</v>
+        <v>185190</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.09772803831783861</v>
+        <v>0.09772803831783859</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08204590454528408</v>
+        <v>0.08222249068506067</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1139134897984918</v>
+        <v>0.1137015097623739</v>
       </c>
     </row>
     <row r="33">
@@ -2828,19 +2828,19 @@
         <v>582114</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>555025</v>
+        <v>553988</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>607818</v>
+        <v>608487</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.7300097264725804</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.696038207139291</v>
+        <v>0.6947376769489745</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.762244506211016</v>
+        <v>0.7630831131953878</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>769</v>
@@ -2849,19 +2849,19 @@
         <v>596575</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>572044</v>
+        <v>572645</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>619594</v>
+        <v>620839</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.7176143875804302</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.6881058279079987</v>
+        <v>0.6888289325129449</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.7453030361854451</v>
+        <v>0.7468008346289047</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1329</v>
@@ -2870,19 +2870,19 @@
         <v>1178690</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1140117</v>
+        <v>1139644</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1213683</v>
+        <v>1214711</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.7236829649430832</v>
+        <v>0.7236829649430833</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.7000001670596675</v>
+        <v>0.6997096175655838</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.7451674470341212</v>
+        <v>0.7457987210230042</v>
       </c>
     </row>
     <row r="34">
@@ -2899,19 +2899,19 @@
         <v>136048</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>115657</v>
+        <v>114604</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>161795</v>
+        <v>158480</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1706135456009208</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1450412746326977</v>
+        <v>0.1437215379313841</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2029016235127261</v>
+        <v>0.1987441398806043</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>200</v>
@@ -2920,19 +2920,19 @@
         <v>154826</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>135374</v>
+        <v>133189</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>177434</v>
+        <v>174635</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1862389835464381</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1628405720178472</v>
+        <v>0.1602123072723149</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2134330582774728</v>
+        <v>0.2100668210265522</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>331</v>
@@ -2941,19 +2941,19 @@
         <v>290875</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>259367</v>
+        <v>262144</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>322947</v>
+        <v>320836</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1785889967390781</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1592442500948751</v>
+        <v>0.1609490109992937</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1982806842693094</v>
+        <v>0.1969846271950273</v>
       </c>
     </row>
     <row r="35">
@@ -3045,19 +3045,19 @@
         <v>273713</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>238653</v>
+        <v>239993</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>312793</v>
+        <v>313284</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.07760156462450424</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.06766166079588075</v>
+        <v>0.06804162844948849</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.08868145421281176</v>
+        <v>0.0888206867104557</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>359</v>
@@ -3066,19 +3066,19 @@
         <v>281041</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>251264</v>
+        <v>251248</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>312599</v>
+        <v>309982</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.07538242241446128</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.06739536417506226</v>
+        <v>0.06739109102893839</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0838470552163522</v>
+        <v>0.08314511597496409</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>589</v>
@@ -3087,19 +3087,19 @@
         <v>554754</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>504689</v>
+        <v>508282</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>603421</v>
+        <v>608796</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.07646124699927805</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.06956092147228661</v>
+        <v>0.07005617471185294</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.08316907014188057</v>
+        <v>0.08390981989362568</v>
       </c>
     </row>
     <row r="37">
@@ -3116,19 +3116,19 @@
         <v>2286401</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2225500</v>
+        <v>2222512</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2347546</v>
+        <v>2348616</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6482284141425443</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.63096188311459</v>
+        <v>0.6301148047923653</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6655637030444459</v>
+        <v>0.6658672810261406</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3454</v>
@@ -3137,19 +3137,19 @@
         <v>2411951</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2361911</v>
+        <v>2355592</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2469742</v>
+        <v>2459190</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.6469475534164036</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.6335253990374955</v>
+        <v>0.6318305728332581</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6624484813070527</v>
+        <v>0.6596182952007672</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>5662</v>
@@ -3158,19 +3158,19 @@
         <v>4698353</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4609886</v>
+        <v>4619552</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4775805</v>
+        <v>4776977</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6475702372781378</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6353769023368884</v>
+        <v>0.6367092692894889</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6582454192136258</v>
+        <v>0.6584069341484361</v>
       </c>
     </row>
     <row r="38">
@@ -3187,19 +3187,19 @@
         <v>967040</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>911619</v>
+        <v>911528</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1024376</v>
+        <v>1028270</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2741700212329515</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2584575073554385</v>
+        <v>0.2584315616271652</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2904255573935544</v>
+        <v>0.2915295231834183</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1540</v>
@@ -3208,19 +3208,19 @@
         <v>1035210</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>986517</v>
+        <v>990936</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1086012</v>
+        <v>1087355</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.277670024169135</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.264609368880815</v>
+        <v>0.2657946464397696</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2912964427728247</v>
+        <v>0.2916565656052375</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2471</v>
@@ -3229,19 +3229,19 @@
         <v>2002250</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1928983</v>
+        <v>1930248</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2080509</v>
+        <v>2076204</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.2759685157225842</v>
+        <v>0.2759685157225841</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2658702143045646</v>
+        <v>0.2660445435118779</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2867549726242108</v>
+        <v>0.2861615260465598</v>
       </c>
     </row>
     <row r="39">
